--- a/Test_summary/Test_Cases_Summary.xlsx
+++ b/Test_summary/Test_Cases_Summary.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="gdK5cfR9jTfv9D20ROmOTaciDLrnjLv0wXc36/8jCC8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="/dt6uVjqFc/qwIvkVfXVbpRmaVstX/vuYsJfJ1Li2ns="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="158">
   <si>
     <t>TEST SUMMARY REPORT</t>
   </si>
@@ -42,10 +42,16 @@
 End Date</t>
   </si>
   <si>
+    <t>Purpose of the tests</t>
+  </si>
+  <si>
     <t>12.10.2025</t>
   </si>
   <si>
     <t>13.10.2025</t>
+  </si>
+  <si>
+    <t>Post-deployment acceptance testing in production enviroment</t>
   </si>
   <si>
     <t>Feature/
@@ -150,12 +156,357 @@
   <si>
     <t>Internal Use Only</t>
   </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
+  <si>
+    <t>BUG ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Number of test cases</t>
+  </si>
+  <si>
+    <t>[Y/N]</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>User Registration</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Executed</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Link &amp; Navigation Testing</t>
+  </si>
+  <si>
+    <t>TC17</t>
+  </si>
+  <si>
+    <t>Contact Us form Testing</t>
+  </si>
+  <si>
+    <t>TC18</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>TC19</t>
+  </si>
+  <si>
+    <t>TC20</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>Product Returns form Testing</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>TC28</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>TC30</t>
+  </si>
+  <si>
+    <t>TC31</t>
+  </si>
+  <si>
+    <t>TC32</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>TC33</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>TC34</t>
+  </si>
+  <si>
+    <t>TC35</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>TC36</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>Adding a product to the cart</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>Product Search</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>Adding to wishlist</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>Reported bugs</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Bug title</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity </t>
+  </si>
+  <si>
+    <t>Nuber of bugs</t>
+  </si>
+  <si>
+    <t>User Registration – Verify First Name field validation for special characters</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>User Registration – Verify Last Name field validation for special characters</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>User Registration – Verify Password field length</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium </t>
+  </si>
+  <si>
+    <t>User Registration – Verify acceptable password field content</t>
+  </si>
+  <si>
+    <t>User Registration Form Submission- Acceptance of the correct form</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Password recovery – Login</t>
+  </si>
+  <si>
+    <t>Contact Us Form Testing - Validate First Name field</t>
+  </si>
+  <si>
+    <t>Product Returns Form Testing – Verify First Name field validation</t>
+  </si>
+  <si>
+    <t>Product Returns Form Testing – Verify First Name field validation for special characters</t>
+  </si>
+  <si>
+    <t>Product Returns Form Testing – Verify Last Name field validation</t>
+  </si>
+  <si>
+    <t>Product Returns Form Testing – Verify Last Name field validationfor for special characters</t>
+  </si>
+  <si>
+    <t>Product Returns form – Verify Telephone field validation</t>
+  </si>
+  <si>
+    <t>Product Returns form – Verify Order Date field (future date validation)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Number of bugs</t>
+  </si>
+  <si>
+    <t>Product Returns form – Verify Product Name field validation</t>
+  </si>
+  <si>
+    <t>Product Returns form – Verify Product Code field validation</t>
+  </si>
+  <si>
+    <t>Product Returns form – Verify “Quantity” field validation</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Verify that not available product cannot be added to the shopping cart</t>
+  </si>
+  <si>
+    <t>Wishlist - verifying product adding to wishlist</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -190,6 +541,17 @@
       <name val="Montserrat"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -214,8 +576,58 @@
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +636,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC4AB"/>
-        <bgColor rgb="FF9CC4AB"/>
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -240,8 +658,44 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="63">
     <border/>
     <border>
       <left style="thin">
@@ -264,22 +718,35 @@
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
     </border>
     <border>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
     </border>
     <border>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
@@ -310,14 +777,6 @@
       <bottom/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -326,6 +785,9 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="medium">
@@ -334,6 +796,20 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -367,7 +843,23 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -378,17 +870,34 @@
       </bottom>
     </border>
     <border>
-      <top style="medium">
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
-      </top>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <bottom style="thin">
         <color rgb="FFFFFFFF"/>
-      </top>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -413,54 +922,9 @@
       </top>
     </border>
     <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -469,9 +933,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -480,54 +941,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
     </border>
     <border>
       <left style="medium">
@@ -544,6 +968,57 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -555,8 +1030,148 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -564,14 +1179,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -580,16 +1199,115 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -603,117 +1321,342 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="11" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="4" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="30" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="41" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="42" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="43" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="44" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="29" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="46" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="23" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="48" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="49" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="49" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="49" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="38" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="51" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="49" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="52" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="53" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="54" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="55" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="56" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="16" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="57" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="58" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="59" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="57" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="59" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="20" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="60" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="59" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="59" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="61" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="62" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="10" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="10" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -722,8 +1665,482 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="666666"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="666666"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:rPr>
+              <a:t>Test cases status</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0809166666666666"/>
+          <c:y val="0.14978448275862075"/>
+          <c:w val="0.8665833333333334"/>
+          <c:h val="0.7661637931034483"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$J$40</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B6D7A8"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA9999"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="196B24"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$29:$J$31</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+              </a:rPr>
+              <a:t>Priority</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0975"/>
+          <c:y val="0.15547525201875143"/>
+          <c:w val="0.806"/>
+          <c:h val="0.776936808282756"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$I$85</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F4CCCC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D9EAD3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F9CB9C"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$80:$J$82</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="666666"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="666666"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Severity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.07795275590551182"/>
+          <c:y val="0.1642029634565125"/>
+          <c:w val="0.8456450131233596"/>
+          <c:h val="0.8112423291643527"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$G$102</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D9EAD3"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="6AA84F"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFD966"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F4CCCC"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$J$94:$J$97</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="4419600"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1725568665" name="Chart 1" title="Wykres"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3790950"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1141442727" name="Chart 2" title="Wykres"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6048375" cy="3743325"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1795074615" name="Chart 3" title="Wykres"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,18 +2348,18 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="19.5"/>
-    <col customWidth="1" min="3" max="3" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="14.75"/>
-    <col customWidth="1" min="5" max="5" width="13.63"/>
-    <col customWidth="1" min="6" max="6" width="10.25"/>
-    <col customWidth="1" min="7" max="7" width="10.63"/>
-    <col customWidth="1" min="8" max="8" width="11.13"/>
-    <col customWidth="1" min="9" max="9" width="13.63"/>
+    <col customWidth="1" min="2" max="2" width="24.5"/>
+    <col customWidth="1" min="3" max="3" width="23.38"/>
+    <col customWidth="1" min="4" max="4" width="15.38"/>
+    <col customWidth="1" min="5" max="5" width="14.13"/>
+    <col customWidth="1" min="6" max="6" width="10.88"/>
+    <col customWidth="1" min="7" max="7" width="13.75"/>
+    <col customWidth="1" min="8" max="8" width="14.25"/>
+    <col customWidth="1" min="9" max="9" width="15.5"/>
     <col customWidth="1" min="10" max="10" width="16.75"/>
     <col customWidth="1" min="11" max="11" width="11.75"/>
     <col customWidth="1" min="12" max="12" width="11.38"/>
-    <col customWidth="1" min="13" max="13" width="13.25"/>
+    <col customWidth="1" min="13" max="13" width="15.0"/>
     <col customWidth="1" min="14" max="14" width="11.5"/>
     <col customWidth="1" min="15" max="15" width="13.75"/>
     <col customWidth="1" min="16" max="16" width="11.75"/>
@@ -1041,30 +2458,30 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="1"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="17"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1073,34 +2490,36 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="23"/>
+      <c r="F5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="17"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1109,21 +2528,36 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="23"/>
+      <c r="E6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="17"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1132,26 +2566,26 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="23"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="17"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1160,44 +2594,44 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="16"/>
-      <c r="B8" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="34" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="37" t="s">
+      <c r="C8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="I8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="39" t="s">
+      <c r="J8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="42" t="s">
+      <c r="K8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="1"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="17"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1206,52 +2640,52 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" ht="34.5" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="44" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="D9" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="18" t="s">
+      <c r="F9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="G9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="L9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="18" t="s">
+      <c r="M9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="P9" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="1"/>
+      <c r="Q9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="55"/>
+      <c r="T9" s="17"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1261,62 +2695,62 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="47">
+      <c r="B10" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="57">
         <v>10.0</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="58">
         <v>10.0</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="59">
         <v>5.0</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="59">
         <v>5.0</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="60">
         <f>D10-(E10+F10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="61">
         <f t="shared" ref="H10:H17" si="1">ROUND(E10/D10%,0)</f>
         <v>50</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="61">
         <f t="shared" ref="I10:I17" si="2">ROUND(E10/(E10+F10)%,0)</f>
         <v>50</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="57">
         <v>5.0</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="57">
         <v>2.0</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="57">
+        <v>2.0</v>
+      </c>
+      <c r="M10" s="57">
         <v>1.0</v>
       </c>
-      <c r="M10" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="N10" s="51">
+      <c r="N10" s="61">
         <v>0.0</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="62">
         <v>0.0</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="62">
         <v>0.0</v>
       </c>
-      <c r="Q10" s="53">
+      <c r="Q10" s="62">
         <v>0.0</v>
       </c>
-      <c r="R10" s="53">
+      <c r="R10" s="62">
         <v>0.0</v>
       </c>
-      <c r="S10" s="54" t="s">
-        <v>28</v>
+      <c r="S10" s="63" t="s">
+        <v>30</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1328,61 +2762,61 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="47">
+      <c r="B11" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="65">
         <v>5.0</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="66">
         <v>5.0</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="67">
         <v>4.0</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="67">
         <v>1.0</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="67">
         <v>0.0</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="68">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="68">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="65">
         <v>1.0</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="65">
         <v>0.0</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="65">
         <v>1.0</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="65">
         <v>0.0</v>
       </c>
-      <c r="N11" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="O11" s="53">
+      <c r="N11" s="65">
         <v>0.0</v>
       </c>
-      <c r="P11" s="53">
+      <c r="O11" s="69">
         <v>0.0</v>
       </c>
-      <c r="Q11" s="53">
+      <c r="P11" s="69">
         <v>0.0</v>
       </c>
-      <c r="R11" s="53">
+      <c r="Q11" s="69">
         <v>0.0</v>
       </c>
-      <c r="S11" s="54" t="s">
-        <v>30</v>
+      <c r="R11" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="S11" s="70" t="s">
+        <v>32</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1394,61 +2828,61 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="47">
+      <c r="B12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="65">
         <v>1.0</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="66">
         <v>1.0</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="67">
         <v>1.0</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="67">
         <v>0.0</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="67">
         <v>0.0</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="68">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="68">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="65">
         <v>0.0</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="65">
         <v>0.0</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="65">
         <v>0.0</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="65">
         <v>0.0</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="68">
         <v>0.0</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="69">
         <v>0.0</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="69">
         <v>0.0</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="69">
         <v>0.0</v>
       </c>
-      <c r="R12" s="53">
+      <c r="R12" s="69">
         <v>0.0</v>
       </c>
-      <c r="S12" s="54" t="s">
-        <v>32</v>
+      <c r="S12" s="70" t="s">
+        <v>34</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1460,61 +2894,61 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="47">
+      <c r="B13" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="65">
         <v>4.0</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="66">
         <v>4.0</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="67">
         <v>3.0</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="67">
         <v>1.0</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="67">
         <v>0.0</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="68">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="68">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="65">
         <v>1.0</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="65">
         <v>0.0</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="65">
         <v>0.0</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="65">
         <v>1.0</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="68">
         <v>0.0</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="69">
         <v>0.0</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="69">
         <v>0.0</v>
       </c>
-      <c r="Q13" s="53">
+      <c r="Q13" s="69">
         <v>0.0</v>
       </c>
-      <c r="R13" s="53">
+      <c r="R13" s="69">
         <v>0.0</v>
       </c>
-      <c r="S13" s="54" t="s">
-        <v>30</v>
+      <c r="S13" s="70" t="s">
+        <v>32</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1526,61 +2960,61 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="47">
+      <c r="B14" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="65">
         <v>17.0</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="66">
         <v>17.0</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="67">
         <v>8.0</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="67">
         <v>9.0</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="67">
         <v>0.0</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="68">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="68">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="65">
         <v>9.0</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="65">
         <v>0.0</v>
       </c>
-      <c r="L14" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="M14" s="52">
-        <v>8.0</v>
-      </c>
-      <c r="N14" s="51">
+      <c r="L14" s="65">
         <v>0.0</v>
       </c>
-      <c r="O14" s="53">
+      <c r="M14" s="65">
+        <v>9.0</v>
+      </c>
+      <c r="N14" s="68">
         <v>0.0</v>
       </c>
-      <c r="P14" s="53">
+      <c r="O14" s="69">
         <v>0.0</v>
       </c>
-      <c r="Q14" s="53">
+      <c r="P14" s="69">
         <v>0.0</v>
       </c>
-      <c r="R14" s="53">
+      <c r="Q14" s="69">
         <v>0.0</v>
       </c>
-      <c r="S14" s="54" t="s">
-        <v>35</v>
+      <c r="R14" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="S14" s="70" t="s">
+        <v>37</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1592,61 +3026,61 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="47">
+      <c r="B15" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="65">
         <v>2.0</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="66">
         <v>2.0</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="67">
         <v>1.0</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="67">
         <v>1.0</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="67">
         <v>0.0</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="68">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="68">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="65">
         <v>1.0</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="65">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="65">
         <v>1.0</v>
       </c>
-      <c r="L15" s="52">
+      <c r="M15" s="65">
         <v>0.0</v>
       </c>
-      <c r="M15" s="52">
+      <c r="N15" s="68">
         <v>0.0</v>
       </c>
-      <c r="N15" s="51">
+      <c r="O15" s="69">
         <v>0.0</v>
       </c>
-      <c r="O15" s="53">
+      <c r="P15" s="69">
         <v>0.0</v>
       </c>
-      <c r="P15" s="53">
+      <c r="Q15" s="69">
         <v>0.0</v>
       </c>
-      <c r="Q15" s="53">
+      <c r="R15" s="69">
         <v>0.0</v>
       </c>
-      <c r="R15" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="54" t="s">
-        <v>30</v>
+      <c r="S15" s="70" t="s">
+        <v>32</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -1658,61 +3092,61 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="47">
+      <c r="B16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="65">
         <v>2.0</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="66">
         <v>2.0</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="67">
         <v>2.0</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="67">
         <v>0.0</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="67">
         <v>0.0</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="68">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="68">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="65">
         <v>0.0</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="65">
         <v>0.0</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="65">
         <v>0.0</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="65">
         <v>0.0</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="68">
         <v>0.0</v>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="69">
         <v>0.0</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="69">
         <v>0.0</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="69">
         <v>0.0</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="69">
         <v>0.0</v>
       </c>
-      <c r="S16" s="54" t="s">
-        <v>32</v>
+      <c r="S16" s="70" t="s">
+        <v>34</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -1724,61 +3158,61 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="47">
+      <c r="B17" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="72">
         <v>1.0</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="73">
         <v>1.0</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="74">
         <v>0.0</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="74">
         <v>1.0</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="74">
         <v>0.0</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="72">
         <v>1.0</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="72">
         <v>0.0</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="72">
         <v>1.0</v>
       </c>
-      <c r="M17" s="52">
+      <c r="N17" s="75">
         <v>0.0</v>
       </c>
-      <c r="N17" s="51">
+      <c r="O17" s="76">
         <v>0.0</v>
       </c>
-      <c r="O17" s="53">
+      <c r="P17" s="76">
         <v>0.0</v>
       </c>
-      <c r="P17" s="53">
+      <c r="Q17" s="76">
         <v>0.0</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="R17" s="76">
         <v>0.0</v>
       </c>
-      <c r="R17" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="S17" s="54" t="s">
-        <v>30</v>
+      <c r="S17" s="77" t="s">
+        <v>32</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1790,24 +3224,24 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="59"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="83"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1818,71 +3252,71 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="47">
+      <c r="B19" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="72">
         <f t="shared" ref="C19:G19" si="3">SUM(C10:C17)</f>
         <v>42</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="73">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="74">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="74">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="75">
         <f>ROUND(E19/D19%,0)</f>
         <v>57</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="75">
         <f>ROUND(E19/(E19+F19)%,0)</f>
         <v>57</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="72">
         <f t="shared" ref="J19:L19" si="4">SUM(J10:J18)</f>
         <v>18</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="72">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L19" s="52">
+        <v>2</v>
+      </c>
+      <c r="L19" s="72">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M19" s="52">
+      <c r="M19" s="72">
         <f t="shared" ref="M19:N19" si="5">SUM(M10:M17)</f>
-        <v>11</v>
-      </c>
-      <c r="N19" s="51">
+        <v>12</v>
+      </c>
+      <c r="N19" s="75">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="53">
+        <v>0</v>
+      </c>
+      <c r="O19" s="76">
         <v>0.0</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="76">
         <v>0.0</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="76">
         <v>0.0</v>
       </c>
-      <c r="R19" s="53">
+      <c r="R19" s="76">
         <v>0.0</v>
       </c>
-      <c r="S19" s="54" t="s">
-        <v>30</v>
+      <c r="S19" s="77" t="s">
+        <v>32</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -1894,26 +3328,26 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="59"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="83"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1980,19 +3414,19 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2007,21 +3441,23 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="17"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2036,19 +3472,19 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2062,17 +3498,17 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" ht="9.0" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2090,18 +3526,32 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+    <row r="27" ht="20.25" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="91"/>
+      <c r="I27" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="17"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2118,18 +3568,20 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2147,17 +3599,31 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="99"/>
+      <c r="I29" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="98">
+        <v>24.0</v>
+      </c>
+      <c r="K29" s="17"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2175,17 +3641,31 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="99"/>
+      <c r="I30" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="98">
+        <v>18.0</v>
+      </c>
+      <c r="K30" s="17"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2203,17 +3683,31 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="99"/>
+      <c r="I31" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="17"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2231,17 +3725,31 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="99"/>
+      <c r="I32" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="98">
+        <v>42.0</v>
+      </c>
+      <c r="K32" s="17"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2259,16 +3767,26 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="104"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2287,16 +3805,26 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="102"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="106"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2315,16 +3843,26 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="102"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="106"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2343,16 +3881,26 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="102"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="106"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2371,16 +3919,26 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="102"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="106"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2399,16 +3957,26 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="102"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="106"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2427,16 +3995,26 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="102"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="108"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2456,15 +4034,25 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="B40" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="102"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2484,15 +4072,25 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="B41" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="102"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2512,15 +4110,25 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="B42" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="102"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2540,15 +4148,25 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="B43" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="102"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2568,15 +4186,25 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="B44" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="102"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2596,15 +4224,25 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="B45" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="102"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2624,15 +4262,25 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="B46" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="102"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2652,15 +4300,25 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="B47" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="102"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2680,15 +4338,25 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="B48" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="102"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2708,15 +4376,25 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="B49" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="102"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2736,15 +4414,25 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="B50" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="102"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2764,15 +4452,25 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="B51" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="102"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2792,15 +4490,25 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="B52" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="H52" s="102"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2820,15 +4528,25 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="B53" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="102"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -2848,15 +4566,25 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="B54" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="102"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -2876,15 +4604,25 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="B55" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="102"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -2904,15 +4642,25 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="B56" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="102"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="17"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -2932,15 +4680,25 @@
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="B57" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="102"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="17"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -2960,15 +4718,25 @@
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="B58" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="102"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -2988,15 +4756,25 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="B59" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="102"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3016,15 +4794,25 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="B60" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="102"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3044,15 +4832,25 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="B61" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="102"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3072,15 +4870,25 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="B62" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="102"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="17"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3100,15 +4908,25 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="B63" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="102"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="17"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3128,15 +4946,25 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="B64" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="102"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3156,15 +4984,25 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="B65" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="102"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="17"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3184,15 +5022,25 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="B66" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="102"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3212,15 +5060,25 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="B67" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="H67" s="102"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3240,15 +5098,25 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="B68" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="102"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="17"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3268,15 +5136,25 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="B69" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="102"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="17"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3296,15 +5174,25 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="B70" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" s="100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="102"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -3323,16 +5211,16 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="17"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3352,15 +5240,15 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="116"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="17"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3380,15 +5268,15 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="118"/>
+      <c r="I73" s="118"/>
+      <c r="J73" s="17"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3408,19 +5296,19 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="85"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -3435,21 +5323,23 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="87"/>
+      <c r="L75" s="87"/>
+      <c r="M75" s="87"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="17"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -3464,19 +5354,19 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -3492,15 +5382,15 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3519,17 +5409,29 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" s="121"/>
+      <c r="G78" s="122"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="J78" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="K78" s="123"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -3547,17 +5449,17 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="123"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="123"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -3575,17 +5477,29 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" s="130"/>
+      <c r="G80" s="131"/>
+      <c r="H80" s="123"/>
+      <c r="I80" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="J80" s="133">
+        <v>7.0</v>
+      </c>
+      <c r="K80" s="123"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -3603,17 +5517,29 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" s="130"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="123"/>
+      <c r="I81" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="J81" s="133">
+        <v>1.0</v>
+      </c>
+      <c r="K81" s="123"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -3631,17 +5557,29 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="F82" s="130"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="123"/>
+      <c r="I82" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="J82" s="133">
+        <v>10.0</v>
+      </c>
+      <c r="K82" s="123"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -3659,17 +5597,25 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="130"/>
+      <c r="G83" s="131"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="9"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -3687,14 +5633,22 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" s="130"/>
+      <c r="G84" s="131"/>
+      <c r="H84" s="17"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3715,14 +5669,22 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85" s="130"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="17"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -3743,14 +5705,22 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="130"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="17"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -3771,14 +5741,22 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="130"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="17"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3799,14 +5777,22 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="130"/>
+      <c r="G88" s="131"/>
+      <c r="H88" s="17"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -3827,14 +5813,22 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" s="130"/>
+      <c r="G89" s="131"/>
+      <c r="H89" s="17"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -3855,14 +5849,22 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="127" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="130"/>
+      <c r="G90" s="131"/>
+      <c r="H90" s="17"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -3883,14 +5885,22 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="127" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="130"/>
+      <c r="G91" s="131"/>
+      <c r="H91" s="17"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -3911,16 +5921,28 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="141" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="141" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="130"/>
+      <c r="G92" s="131"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="124" t="s">
+        <v>149</v>
+      </c>
+      <c r="J92" s="124" t="s">
+        <v>150</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -3939,16 +5961,24 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="130"/>
+      <c r="G93" s="131"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3967,16 +5997,28 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="130"/>
+      <c r="G94" s="131"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="J94" s="133">
+        <v>1.0</v>
+      </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -3995,16 +6037,28 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" s="130"/>
+      <c r="G95" s="131"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="J95" s="133">
+        <v>10.0</v>
+      </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -4023,16 +6077,28 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="130"/>
+      <c r="G96" s="131"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="J96" s="133">
+        <v>5.0</v>
+      </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -4051,16 +6117,28 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="D97" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" s="130"/>
+      <c r="G97" s="131"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="J97" s="133">
+        <v>2.0</v>
+      </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -4080,12 +6158,12 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="88"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -29306,7 +31384,7 @@
       <c r="Y998" s="1"/>
       <c r="Z998" s="1"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" ht="1.5" customHeight="1">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -29363,27 +31441,98 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="91">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:S4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="F6:J7"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:R8"/>
     <mergeCell ref="S8:S9"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="H3:S3"/>
-    <mergeCell ref="H4:S4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="F5:S7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="R20:S20"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="J78:J79"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Test_summary/Test_Cases_Summary.xlsx
+++ b/Test_summary/Test_Cases_Summary.xlsx
@@ -2996,10 +2996,10 @@
         <v>0.0</v>
       </c>
       <c r="M14" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="N14" s="68">
-        <v>0.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="N14" s="65">
+        <v>1.0</v>
       </c>
       <c r="O14" s="69">
         <v>0.0</v>
@@ -3297,11 +3297,11 @@
       </c>
       <c r="M19" s="72">
         <f t="shared" ref="M19:N19" si="5">SUM(M10:M17)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N19" s="75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="76">
         <v>0.0</v>
